--- a/util/ballgenerator.xlsx
+++ b/util/ballgenerator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +383,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -401,8 +417,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -414,7 +436,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1022,7 +1050,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,6 +1096,10 @@
         <f>E1+1</f>
         <v>65</v>
       </c>
+      <c r="F2" s="5" t="str">
+        <f t="shared" ref="F2:F21" si="0">" { ""id"": """&amp;A2&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B2&amp;""", ""g"": """&amp;C2&amp;""", ""b"": """&amp;D2&amp;""" }, ""note"": """&amp;E2&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "green",  "presence": {  "color": { "r": "60", "g": "180", "b": "75" }, "note": "65" } },</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1083,8 +1115,12 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">E2+1</f>
+        <f t="shared" ref="E3:E21" si="1">E2+1</f>
         <v>66</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "yellow",  "presence": {  "color": { "r": "255", "g": "225", "b": "25" }, "note": "66" } },</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,8 +1137,12 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "blue",  "presence": {  "color": { "r": "0", "g": "130", "b": "200" }, "note": "67" } },</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1119,8 +1159,12 @@
         <v>48</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "orange",  "presence": {  "color": { "r": "245", "g": "130", "b": "48" }, "note": "68" } },</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,8 +1181,12 @@
         <v>180</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "purple",  "presence": {  "color": { "r": "145", "g": "30", "b": "180" }, "note": "69" } },</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,8 +1203,12 @@
         <v>240</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "cyan",  "presence": {  "color": { "r": "70", "g": "240", "b": "240" }, "note": "70" } },</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,8 +1225,12 @@
         <v>230</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71</v>
+      </c>
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "magenta",  "presence": {  "color": { "r": "240", "g": "50", "b": "230" }, "note": "71" } },</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,8 +1247,12 @@
         <v>60</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "lime",  "presence": {  "color": { "r": "210", "g": "245", "b": "60" }, "note": "72" } },</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,8 +1269,12 @@
         <v>190</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "pink",  "presence": {  "color": { "r": "250", "g": "190", "b": "190" }, "note": "73" } },</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1227,8 +1291,12 @@
         <v>128</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "teal",  "presence": {  "color": { "r": "0", "g": "128", "b": "128" }, "note": "74" } },</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1245,8 +1313,12 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "lavender",  "presence": {  "color": { "r": "230", "g": "190", "b": "255" }, "note": "75" } },</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1263,8 +1335,12 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "brown",  "presence": {  "color": { "r": "170", "g": "110", "b": "40" }, "note": "76" } },</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1281,8 +1357,12 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "beige",  "presence": {  "color": { "r": "255", "g": "250", "b": "200" }, "note": "77" } },</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,8 +1379,12 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>78</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "maroon",  "presence": {  "color": { "r": "128", "g": "0", "b": "0" }, "note": "78" } },</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,11 +1401,15 @@
         <v>195</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "mint",  "presence": {  "color": { "r": "170", "g": "255", "b": "195" }, "note": "79" } },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1335,11 +1423,15 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "olive",  "presence": {  "color": { "r": "128", "g": "128", "b": "0" }, "note": "80" } },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1353,11 +1445,15 @@
         <v>180</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "coral",  "presence": {  "color": { "r": "255", "g": "215", "b": "180" }, "note": "81" } },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1371,11 +1467,15 @@
         <v>128</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "navy",  "presence": {  "color": { "r": "0", "g": "0", "b": "128" }, "note": "82" } },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1389,11 +1489,15 @@
         <v>128</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "grey",  "presence": {  "color": { "r": "128", "g": "128", "b": "128" }, "note": "83" } },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -1407,11 +1511,16 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>84</v>
+      </c>
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> { "id": "white",  "presence": {  "color": { "r": "255", "g": "255", "b": "255" }, "note": "84" } },</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/util/ballgenerator.xlsx
+++ b/util/ballgenerator.xlsx
@@ -417,8 +417,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -436,13 +442,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,7 +1062,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,11 +1084,11 @@
         <v>75</v>
       </c>
       <c r="E1">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="str">
         <f>" { ""id"": """&amp;A1&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B1&amp;""", ""g"": """&amp;C1&amp;""", ""b"": """&amp;D1&amp;""" }, ""note"": """&amp;E1&amp;""" } },"</f>
-        <v xml:space="preserve"> { "id": "red",  "presence": {  "color": { "r": "230", "g": "25", "b": "75" }, "note": "64" } },</v>
+        <v xml:space="preserve"> { "id": "red",  "presence": {  "color": { "r": "230", "g": "25", "b": "75" }, "note": "77" } },</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,12 +1105,11 @@
         <v>75</v>
       </c>
       <c r="E2">
-        <f>E1+1</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f t="shared" ref="F2:F21" si="0">" { ""id"": """&amp;A2&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B2&amp;""", ""g"": """&amp;C2&amp;""", ""b"": """&amp;D2&amp;""" }, ""note"": """&amp;E2&amp;""" } },"</f>
-        <v xml:space="preserve"> { "id": "green",  "presence": {  "color": { "r": "60", "g": "180", "b": "75" }, "note": "65" } },</v>
+        <f>" { ""id"": """&amp;A2&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B2&amp;""", ""g"": """&amp;C2&amp;""", ""b"": """&amp;D2&amp;""" }, ""note"": """&amp;E2&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "green",  "presence": {  "color": { "r": "60", "g": "180", "b": "75" }, "note": "69" } },</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1115,12 +1126,11 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="1">E2+1</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "yellow",  "presence": {  "color": { "r": "255", "g": "225", "b": "25" }, "note": "66" } },</v>
+        <f>" { ""id"": """&amp;A3&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B3&amp;""", ""g"": """&amp;C3&amp;""", ""b"": """&amp;D3&amp;""" }, ""note"": """&amp;E3&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "yellow",  "presence": {  "color": { "r": "255", "g": "225", "b": "25" }, "note": "88" } },</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,12 +1147,11 @@
         <v>200</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "blue",  "presence": {  "color": { "r": "0", "g": "130", "b": "200" }, "note": "67" } },</v>
+        <f>" { ""id"": """&amp;A4&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B4&amp;""", ""g"": """&amp;C4&amp;""", ""b"": """&amp;D4&amp;""" }, ""note"": """&amp;E4&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "blue",  "presence": {  "color": { "r": "0", "g": "130", "b": "200" }, "note": "95" } },</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1159,12 +1168,11 @@
         <v>48</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "orange",  "presence": {  "color": { "r": "245", "g": "130", "b": "48" }, "note": "68" } },</v>
+        <f>" { ""id"": """&amp;A5&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B5&amp;""", ""g"": """&amp;C5&amp;""", ""b"": """&amp;D5&amp;""" }, ""note"": """&amp;E5&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "orange",  "presence": {  "color": { "r": "245", "g": "130", "b": "48" }, "note": "65" } },</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,12 +1189,11 @@
         <v>180</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "purple",  "presence": {  "color": { "r": "145", "g": "30", "b": "180" }, "note": "69" } },</v>
+        <f>" { ""id"": """&amp;A6&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B6&amp;""", ""g"": """&amp;C6&amp;""", ""b"": """&amp;D6&amp;""" }, ""note"": """&amp;E6&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "purple",  "presence": {  "color": { "r": "145", "g": "30", "b": "180" }, "note": "98" } },</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1203,12 +1210,11 @@
         <v>240</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "cyan",  "presence": {  "color": { "r": "70", "g": "240", "b": "240" }, "note": "70" } },</v>
+        <f>" { ""id"": """&amp;A7&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B7&amp;""", ""g"": """&amp;C7&amp;""", ""b"": """&amp;D7&amp;""" }, ""note"": """&amp;E7&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "cyan",  "presence": {  "color": { "r": "70", "g": "240", "b": "240" }, "note": "82" } },</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,12 +1231,11 @@
         <v>230</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "magenta",  "presence": {  "color": { "r": "240", "g": "50", "b": "230" }, "note": "71" } },</v>
+        <f>" { ""id"": """&amp;A8&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B8&amp;""", ""g"": """&amp;C8&amp;""", ""b"": """&amp;D8&amp;""" }, ""note"": """&amp;E8&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "magenta",  "presence": {  "color": { "r": "240", "g": "50", "b": "230" }, "note": "91" } },</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,11 +1252,10 @@
         <v>60</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>" { ""id"": """&amp;A9&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B9&amp;""", ""g"": """&amp;C9&amp;""", ""b"": """&amp;D9&amp;""" }, ""note"": """&amp;E9&amp;""" } },"</f>
         <v xml:space="preserve"> { "id": "lime",  "presence": {  "color": { "r": "210", "g": "245", "b": "60" }, "note": "72" } },</v>
       </c>
     </row>
@@ -1269,12 +1273,11 @@
         <v>190</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "pink",  "presence": {  "color": { "r": "250", "g": "190", "b": "190" }, "note": "73" } },</v>
+        <f>" { ""id"": """&amp;A10&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B10&amp;""", ""g"": """&amp;C10&amp;""", ""b"": """&amp;D10&amp;""" }, ""note"": """&amp;E10&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "pink",  "presence": {  "color": { "r": "250", "g": "190", "b": "190" }, "note": "84" } },</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1291,12 +1294,11 @@
         <v>128</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "teal",  "presence": {  "color": { "r": "0", "g": "128", "b": "128" }, "note": "74" } },</v>
+        <f>" { ""id"": """&amp;A11&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B11&amp;""", ""g"": """&amp;C11&amp;""", ""b"": """&amp;D11&amp;""" }, ""note"": """&amp;E11&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "teal",  "presence": {  "color": { "r": "0", "g": "128", "b": "128" }, "note": "67" } },</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,12 +1315,11 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "lavender",  "presence": {  "color": { "r": "230", "g": "190", "b": "255" }, "note": "75" } },</v>
+        <f>" { ""id"": """&amp;A12&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B12&amp;""", ""g"": """&amp;C12&amp;""", ""b"": """&amp;D12&amp;""" }, ""note"": """&amp;E12&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "lavender",  "presence": {  "color": { "r": "230", "g": "190", "b": "255" }, "note": "96" } },</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1335,12 +1336,11 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "brown",  "presence": {  "color": { "r": "170", "g": "110", "b": "40" }, "note": "76" } },</v>
+        <f>" { ""id"": """&amp;A13&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B13&amp;""", ""g"": """&amp;C13&amp;""", ""b"": """&amp;D13&amp;""" }, ""note"": """&amp;E13&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "brown",  "presence": {  "color": { "r": "170", "g": "110", "b": "40" }, "note": "64" } },</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1357,12 +1357,11 @@
         <v>200</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "beige",  "presence": {  "color": { "r": "255", "g": "250", "b": "200" }, "note": "77" } },</v>
+        <f>" { ""id"": """&amp;A14&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B14&amp;""", ""g"": """&amp;C14&amp;""", ""b"": """&amp;D14&amp;""" }, ""note"": """&amp;E14&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "beige",  "presence": {  "color": { "r": "255", "g": "250", "b": "200" }, "note": "71" } },</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1379,12 +1378,11 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "maroon",  "presence": {  "color": { "r": "128", "g": "0", "b": "0" }, "note": "78" } },</v>
+        <f>" { ""id"": """&amp;A15&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B15&amp;""", ""g"": """&amp;C15&amp;""", ""b"": """&amp;D15&amp;""" }, ""note"": """&amp;E15&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "maroon",  "presence": {  "color": { "r": "128", "g": "0", "b": "0" }, "note": "76" } },</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1401,11 +1399,10 @@
         <v>195</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>" { ""id"": """&amp;A16&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B16&amp;""", ""g"": """&amp;C16&amp;""", ""b"": """&amp;D16&amp;""" }, ""note"": """&amp;E16&amp;""" } },"</f>
         <v xml:space="preserve"> { "id": "mint",  "presence": {  "color": { "r": "170", "g": "255", "b": "195" }, "note": "79" } },</v>
       </c>
     </row>
@@ -1423,12 +1420,11 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "olive",  "presence": {  "color": { "r": "128", "g": "128", "b": "0" }, "note": "80" } },</v>
+        <f>" { ""id"": """&amp;A17&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B17&amp;""", ""g"": """&amp;C17&amp;""", ""b"": """&amp;D17&amp;""" }, ""note"": """&amp;E17&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "olive",  "presence": {  "color": { "r": "128", "g": "128", "b": "0" }, "note": "83" } },</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,12 +1441,11 @@
         <v>180</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "coral",  "presence": {  "color": { "r": "255", "g": "215", "b": "180" }, "note": "81" } },</v>
+        <f>" { ""id"": """&amp;A18&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B18&amp;""", ""g"": """&amp;C18&amp;""", ""b"": """&amp;D18&amp;""" }, ""note"": """&amp;E18&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "coral",  "presence": {  "color": { "r": "255", "g": "215", "b": "180" }, "note": "86" } },</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,12 +1462,11 @@
         <v>128</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "navy",  "presence": {  "color": { "r": "0", "g": "0", "b": "128" }, "note": "82" } },</v>
+        <f>" { ""id"": """&amp;A19&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B19&amp;""", ""g"": """&amp;C19&amp;""", ""b"": """&amp;D19&amp;""" }, ""note"": """&amp;E19&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "navy",  "presence": {  "color": { "r": "0", "g": "0", "b": "128" }, "note": "89" } },</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1489,12 +1483,11 @@
         <v>128</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "grey",  "presence": {  "color": { "r": "128", "g": "128", "b": "128" }, "note": "83" } },</v>
+        <f>" { ""id"": """&amp;A20&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B20&amp;""", ""g"": """&amp;C20&amp;""", ""b"": """&amp;D20&amp;""" }, ""note"": """&amp;E20&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "grey",  "presence": {  "color": { "r": "128", "g": "128", "b": "128" }, "note": "93" } },</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,15 +1504,17 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> { "id": "white",  "presence": {  "color": { "r": "255", "g": "255", "b": "255" }, "note": "84" } },</v>
+        <f>" { ""id"": """&amp;A21&amp;""",  ""presence"": {  ""color"": { ""r"": """&amp;B21&amp;""", ""g"": """&amp;C21&amp;""", ""b"": """&amp;D21&amp;""" }, ""note"": """&amp;E21&amp;""" } },"</f>
+        <v xml:space="preserve"> { "id": "white",  "presence": {  "color": { "r": "255", "g": "255", "b": "255" }, "note": "100" } },</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="E25:E45">
+    <sortCondition ref="E25:E45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
